--- a/excel/etf_closeness_centrality.xlsx
+++ b/excel/etf_closeness_centrality.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,7 +385,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5155945419103314</v>
+        <v>0.8518518518518519</v>
       </c>
     </row>
     <row r="3">
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4971804511278195</v>
+        <v>0.8214285714285714</v>
       </c>
     </row>
     <row r="4">
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4800362976406534</v>
+        <v>0.7931034482758621</v>
       </c>
     </row>
     <row r="5">
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4640350877192982</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4640350877192982</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="7">
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4640350877192982</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4640350877192982</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4640350877192982</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="10">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4640350877192982</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4640350877192982</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4640350877192982</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="13">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4640350877192982</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4490662139219015</v>
+        <v>0.7419354838709677</v>
       </c>
     </row>
     <row r="15">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4490662139219015</v>
+        <v>0.7419354838709677</v>
       </c>
     </row>
     <row r="16">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4490662139219015</v>
+        <v>0.7419354838709677</v>
       </c>
     </row>
     <row r="17">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4490662139219015</v>
+        <v>0.7419354838709677</v>
       </c>
     </row>
     <row r="18">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3163875598086124</v>
+        <v>0.5227272727272727</v>
       </c>
     </row>
     <row r="19">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3163875598086124</v>
+        <v>0.5227272727272727</v>
       </c>
     </row>
     <row r="20">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3093567251461988</v>
+        <v>0.5111111111111111</v>
       </c>
     </row>
     <row r="21">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3026315789473684</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2961926091825308</v>
+        <v>0.4893617021276596</v>
       </c>
     </row>
     <row r="23">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2841031149301826</v>
+        <v>0.4693877551020408</v>
       </c>
     </row>
     <row r="24">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2729618163054696</v>
+        <v>0.4509803921568628</v>
       </c>
     </row>
     <row r="25">
@@ -615,157 +615,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2677125506072874</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Sanja Vranes</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Milana Prodanov</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Stefan Tubic</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Filip Hadzic</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Vladimir Jocovic</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Danko Miladinovic</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Dragana Milovancevic</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Jelica Cincovic</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Jovan Djukic</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Kristijan Ziza</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Marko Micovic</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Tamara Sekularac</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Uros Radenkovic</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Aleksandar Lazic</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Dragisa Miladinovic</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
+        <v>0.4423076923076923</v>
       </c>
     </row>
   </sheetData>
